--- a/team_specific_matrix/Georgia Tech_A.xlsx
+++ b/team_specific_matrix/Georgia Tech_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2176165803108808</v>
+        <v>0.2134387351778656</v>
       </c>
       <c r="C2">
-        <v>0.5129533678756477</v>
+        <v>0.525691699604743</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0155440414507772</v>
+        <v>0.0158102766798419</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1606217616580311</v>
+        <v>0.150197628458498</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09326424870466321</v>
+        <v>0.09486166007905138</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009803921568627451</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C3">
-        <v>0.0196078431372549</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0392156862745098</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7450980392156863</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1862745098039216</v>
+        <v>0.1884057971014493</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07407407407407407</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="P4">
-        <v>0.7037037037037037</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2222222222222222</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09433962264150944</v>
+        <v>0.08292682926829269</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01257861635220126</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09433962264150944</v>
+        <v>0.1073170731707317</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1886792452830189</v>
+        <v>0.2292682926829268</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01257861635220126</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1006289308176101</v>
+        <v>0.09268292682926829</v>
       </c>
       <c r="R6">
-        <v>0.06289308176100629</v>
+        <v>0.06341463414634146</v>
       </c>
       <c r="S6">
-        <v>0.4339622641509434</v>
+        <v>0.3951219512195122</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1310344827586207</v>
+        <v>0.1277777777777778</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02758620689655172</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="F7">
-        <v>0.103448275862069</v>
+        <v>0.1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03448275862068965</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02068965517241379</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1793103448275862</v>
+        <v>0.1722222222222222</v>
       </c>
       <c r="R7">
-        <v>0.07586206896551724</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S7">
-        <v>0.4275862068965517</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1032258064516129</v>
+        <v>0.1075</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01290322580645161</v>
+        <v>0.015</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06774193548387097</v>
+        <v>0.06</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09677419354838709</v>
+        <v>0.1075</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01290322580645161</v>
+        <v>0.0175</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1709677419354839</v>
+        <v>0.1675</v>
       </c>
       <c r="R8">
-        <v>0.1096774193548387</v>
+        <v>0.1125</v>
       </c>
       <c r="S8">
-        <v>0.4258064516129032</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04794520547945205</v>
+        <v>0.05649717514124294</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00684931506849315</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0684931506849315</v>
+        <v>0.06214689265536723</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1712328767123288</v>
+        <v>0.1468926553672316</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03424657534246575</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1712328767123288</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="R9">
-        <v>0.06164383561643835</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="S9">
-        <v>0.4383561643835616</v>
+        <v>0.4463276836158192</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09471094710947109</v>
+        <v>0.09746954076850985</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01968019680196802</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06519065190651907</v>
+        <v>0.06654170571696345</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1254612546125461</v>
+        <v>0.1349578256794752</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01845018450184502</v>
+        <v>0.0168697282099344</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1734317343173432</v>
+        <v>0.1808809746954077</v>
       </c>
       <c r="R10">
-        <v>0.1107011070110701</v>
+        <v>0.1002811621368322</v>
       </c>
       <c r="S10">
-        <v>0.3923739237392374</v>
+        <v>0.3823805060918463</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1150442477876106</v>
+        <v>0.1245421245421245</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07079646017699115</v>
+        <v>0.0695970695970696</v>
       </c>
       <c r="K11">
-        <v>0.163716814159292</v>
+        <v>0.1721611721611722</v>
       </c>
       <c r="L11">
-        <v>0.6194690265486725</v>
+        <v>0.608058608058608</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03097345132743363</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7394366197183099</v>
+        <v>0.7440476190476191</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1901408450704225</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="K12">
-        <v>0.007042253521126761</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="L12">
-        <v>0.02816901408450704</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0352112676056338</v>
+        <v>0.02976190476190476</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7931034482758621</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1379310344827586</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06896551724137931</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01379310344827586</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1310344827586207</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="I15">
-        <v>0.06206896551724138</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="J15">
-        <v>0.3379310344827586</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="K15">
-        <v>0.06896551724137931</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01379310344827586</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0896551724137931</v>
+        <v>0.1223404255319149</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2827586206896552</v>
+        <v>0.2446808510638298</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.016</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.256</v>
+        <v>0.2331288343558282</v>
       </c>
       <c r="I16">
-        <v>0.08799999999999999</v>
+        <v>0.08588957055214724</v>
       </c>
       <c r="J16">
-        <v>0.312</v>
+        <v>0.3251533742331288</v>
       </c>
       <c r="K16">
-        <v>0.112</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.016</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.032</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.168</v>
+        <v>0.1717791411042945</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02230483271375465</v>
+        <v>0.02312138728323699</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1821561338289963</v>
+        <v>0.1965317919075145</v>
       </c>
       <c r="I17">
-        <v>0.1078066914498141</v>
+        <v>0.1184971098265896</v>
       </c>
       <c r="J17">
-        <v>0.4014869888475837</v>
+        <v>0.3901734104046243</v>
       </c>
       <c r="K17">
-        <v>0.104089219330855</v>
+        <v>0.09826589595375723</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.003717472118959108</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06319702602230483</v>
+        <v>0.06647398843930635</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1152416356877323</v>
+        <v>0.1011560693641619</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01282051282051282</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1474358974358974</v>
+        <v>0.1413612565445026</v>
       </c>
       <c r="I18">
-        <v>0.04487179487179487</v>
+        <v>0.05235602094240838</v>
       </c>
       <c r="J18">
-        <v>0.4294871794871795</v>
+        <v>0.4345549738219895</v>
       </c>
       <c r="K18">
-        <v>0.108974358974359</v>
+        <v>0.1151832460732984</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02564102564102564</v>
+        <v>0.03141361256544502</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="O18">
-        <v>0.04487179487179487</v>
+        <v>0.04712041884816754</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1858974358974359</v>
+        <v>0.162303664921466</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0145985401459854</v>
+        <v>0.01607445008460237</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1981230448383733</v>
+        <v>0.2089678510998308</v>
       </c>
       <c r="I19">
-        <v>0.0948905109489051</v>
+        <v>0.08629441624365482</v>
       </c>
       <c r="J19">
-        <v>0.3263816475495308</v>
+        <v>0.3401015228426396</v>
       </c>
       <c r="K19">
-        <v>0.1220020855057351</v>
+        <v>0.1125211505922166</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02294056308654849</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="N19">
-        <v>0.001042752867570386</v>
+        <v>0.0008460236886632825</v>
       </c>
       <c r="O19">
-        <v>0.06152241918665276</v>
+        <v>0.05752961082910321</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1584984358706986</v>
+        <v>0.1522842639593909</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Georgia Tech_A.xlsx
+++ b/team_specific_matrix/Georgia Tech_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2134387351778656</v>
+        <v>0.2097378277153558</v>
       </c>
       <c r="C2">
-        <v>0.525691699604743</v>
+        <v>0.5318352059925093</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0158102766798419</v>
+        <v>0.01872659176029963</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.150197628458498</v>
+        <v>0.149812734082397</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09486166007905138</v>
+        <v>0.0898876404494382</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007246376811594203</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="C3">
-        <v>0.02173913043478261</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04347826086956522</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7391304347826086</v>
+        <v>0.7414965986394558</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1884057971014493</v>
+        <v>0.1836734693877551</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05263157894736842</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02631578947368421</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P4">
-        <v>0.6052631578947368</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3157894736842105</v>
+        <v>0.3023255813953488</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08292682926829269</v>
+        <v>0.08071748878923767</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01463414634146342</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1073170731707317</v>
+        <v>0.1076233183856502</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2292682926829268</v>
+        <v>0.2286995515695067</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01463414634146342</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.09268292682926829</v>
+        <v>0.09865470852017937</v>
       </c>
       <c r="R6">
-        <v>0.06341463414634146</v>
+        <v>0.06278026905829596</v>
       </c>
       <c r="S6">
-        <v>0.3951219512195122</v>
+        <v>0.3946188340807175</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1277777777777778</v>
+        <v>0.1216931216931217</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02222222222222222</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="E7">
-        <v>0.005555555555555556</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="F7">
-        <v>0.1</v>
+        <v>0.1005291005291005</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06666666666666667</v>
+        <v>0.06878306878306878</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02222222222222222</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1722222222222222</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="R7">
-        <v>0.06666666666666667</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="S7">
-        <v>0.4166666666666667</v>
+        <v>0.4232804232804233</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1075</v>
+        <v>0.1064814814814815</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.015</v>
+        <v>0.0162037037037037</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06</v>
+        <v>0.06018518518518518</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1075</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0175</v>
+        <v>0.0162037037037037</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1675</v>
+        <v>0.1643518518518519</v>
       </c>
       <c r="R8">
-        <v>0.1125</v>
+        <v>0.1180555555555556</v>
       </c>
       <c r="S8">
-        <v>0.4125</v>
+        <v>0.4074074074074074</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05649717514124294</v>
+        <v>0.05612244897959184</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01694915254237288</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06214689265536723</v>
+        <v>0.05612244897959184</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1468926553672316</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03389830508474576</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1694915254237288</v>
+        <v>0.173469387755102</v>
       </c>
       <c r="R9">
-        <v>0.06779661016949153</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="S9">
-        <v>0.4463276836158192</v>
+        <v>0.4438775510204082</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09746954076850985</v>
+        <v>0.09369676320272573</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02061855670103093</v>
+        <v>0.02129471890971039</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06654170571696345</v>
+        <v>0.06814310051107325</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1349578256794752</v>
+        <v>0.1362862010221465</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0168697282099344</v>
+        <v>0.01533219761499148</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1808809746954077</v>
+        <v>0.182282793867121</v>
       </c>
       <c r="R10">
-        <v>0.1002811621368322</v>
+        <v>0.100511073253833</v>
       </c>
       <c r="S10">
-        <v>0.3823805060918463</v>
+        <v>0.3824531516183987</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1245421245421245</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0695970695970696</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="K11">
-        <v>0.1721611721611722</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L11">
-        <v>0.608058608058608</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7440476190476191</v>
+        <v>0.7457627118644068</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1964285714285714</v>
+        <v>0.1977401129943503</v>
       </c>
       <c r="K12">
-        <v>0.005952380952380952</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="L12">
-        <v>0.02380952380952381</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02976190476190476</v>
+        <v>0.02824858757062147</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02127659574468085</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1276595744680851</v>
+        <v>0.1237623762376238</v>
       </c>
       <c r="I15">
-        <v>0.05851063829787234</v>
+        <v>0.06435643564356436</v>
       </c>
       <c r="J15">
-        <v>0.3404255319148936</v>
+        <v>0.3712871287128713</v>
       </c>
       <c r="K15">
-        <v>0.07446808510638298</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01063829787234043</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1223404255319149</v>
+        <v>0.1138613861386139</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2446808510638298</v>
+        <v>0.2277227722772277</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01840490797546012</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2331288343558282</v>
+        <v>0.2215909090909091</v>
       </c>
       <c r="I16">
-        <v>0.08588957055214724</v>
+        <v>0.08522727272727272</v>
       </c>
       <c r="J16">
-        <v>0.3251533742331288</v>
+        <v>0.3352272727272727</v>
       </c>
       <c r="K16">
-        <v>0.1165644171779141</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01226993865030675</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03680981595092025</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1717791411042945</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02312138728323699</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1965317919075145</v>
+        <v>0.1931216931216931</v>
       </c>
       <c r="I17">
-        <v>0.1184971098265896</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="J17">
-        <v>0.3901734104046243</v>
+        <v>0.3915343915343915</v>
       </c>
       <c r="K17">
-        <v>0.09826589595375723</v>
+        <v>0.09788359788359788</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.005780346820809248</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06647398843930635</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1011560693641619</v>
+        <v>0.1005291005291005</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01047120418848168</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1413612565445026</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="I18">
-        <v>0.05235602094240838</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="J18">
-        <v>0.4345549738219895</v>
+        <v>0.4158878504672897</v>
       </c>
       <c r="K18">
-        <v>0.1151832460732984</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03141361256544502</v>
+        <v>0.03271028037383177</v>
       </c>
       <c r="N18">
-        <v>0.005235602094240838</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="O18">
-        <v>0.04712041884816754</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.162303664921466</v>
+        <v>0.1588785046728972</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01607445008460237</v>
+        <v>0.01649646504320503</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2089678510998308</v>
+        <v>0.2073841319717203</v>
       </c>
       <c r="I19">
-        <v>0.08629441624365482</v>
+        <v>0.08562450903377848</v>
       </c>
       <c r="J19">
-        <v>0.3401015228426396</v>
+        <v>0.3432835820895522</v>
       </c>
       <c r="K19">
-        <v>0.1125211505922166</v>
+        <v>0.1091908876669285</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02538071065989848</v>
+        <v>0.02592301649646504</v>
       </c>
       <c r="N19">
-        <v>0.0008460236886632825</v>
+        <v>0.001571091908876669</v>
       </c>
       <c r="O19">
-        <v>0.05752961082910321</v>
+        <v>0.06048703849175176</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1522842639593909</v>
+        <v>0.1500392772977219</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Georgia Tech_A.xlsx
+++ b/team_specific_matrix/Georgia Tech_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2097378277153558</v>
+        <v>0.208955223880597</v>
       </c>
       <c r="C2">
-        <v>0.5318352059925093</v>
+        <v>0.5335820895522388</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01872659176029963</v>
+        <v>0.01865671641791045</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.149812734082397</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0898876404494382</v>
+        <v>0.08955223880597014</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006802721088435374</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="C3">
-        <v>0.02040816326530612</v>
+        <v>0.02027027027027027</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04761904761904762</v>
+        <v>0.0472972972972973</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7414965986394558</v>
+        <v>0.7432432432432432</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1836734693877551</v>
+        <v>0.1824324324324324</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08071748878923767</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01345291479820628</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1076233183856502</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2286995515695067</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01345291479820628</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.09865470852017937</v>
+        <v>0.09829059829059829</v>
       </c>
       <c r="R6">
-        <v>0.06278026905829596</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="S6">
-        <v>0.3946188340807175</v>
+        <v>0.4017094017094017</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1216931216931217</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02116402116402116</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="E7">
-        <v>0.005291005291005291</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="F7">
-        <v>0.1005291005291005</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06878306878306878</v>
+        <v>0.06565656565656566</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02116402116402116</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.164021164021164</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R7">
-        <v>0.07407407407407407</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="S7">
-        <v>0.4232804232804233</v>
+        <v>0.4292929292929293</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1064814814814815</v>
+        <v>0.1029082774049217</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0162037037037037</v>
+        <v>0.01565995525727069</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06018518518518518</v>
+        <v>0.06263982102908278</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1111111111111111</v>
+        <v>0.1096196868008949</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0162037037037037</v>
+        <v>0.01565995525727069</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1643518518518519</v>
+        <v>0.1655480984340045</v>
       </c>
       <c r="R8">
-        <v>0.1180555555555556</v>
+        <v>0.116331096196868</v>
       </c>
       <c r="S8">
-        <v>0.4074074074074074</v>
+        <v>0.4116331096196868</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05612244897959184</v>
+        <v>0.055</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05612244897959184</v>
+        <v>0.06</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1428571428571428</v>
+        <v>0.145</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03061224489795918</v>
+        <v>0.03</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.173469387755102</v>
+        <v>0.17</v>
       </c>
       <c r="R9">
-        <v>0.07653061224489796</v>
+        <v>0.075</v>
       </c>
       <c r="S9">
-        <v>0.4438775510204082</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09369676320272573</v>
+        <v>0.09060955518945635</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02129471890971039</v>
+        <v>0.02059308072487644</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06814310051107325</v>
+        <v>0.06919275123558484</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1362862010221465</v>
+        <v>0.1350906095551895</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01533219761499148</v>
+        <v>0.0156507413509061</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.182282793867121</v>
+        <v>0.186161449752883</v>
       </c>
       <c r="R10">
-        <v>0.100511073253833</v>
+        <v>0.1029654036243822</v>
       </c>
       <c r="S10">
-        <v>0.3824531516183987</v>
+        <v>0.3797364085667216</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1219512195121951</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07317073170731707</v>
+        <v>0.07094594594594594</v>
       </c>
       <c r="K11">
-        <v>0.1707317073170732</v>
+        <v>0.1689189189189189</v>
       </c>
       <c r="L11">
-        <v>0.6097560975609756</v>
+        <v>0.6148648648648649</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02439024390243903</v>
+        <v>0.02364864864864865</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7457627118644068</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1977401129943503</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="K12">
-        <v>0.005649717514124294</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="L12">
-        <v>0.02259887005649718</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02824858757062147</v>
+        <v>0.02717391304347826</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7045454545454546</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04545454545454546</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0198019801980198</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1237623762376238</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="I15">
-        <v>0.06435643564356436</v>
+        <v>0.0625</v>
       </c>
       <c r="J15">
-        <v>0.3712871287128713</v>
+        <v>0.3701923076923077</v>
       </c>
       <c r="K15">
-        <v>0.06930693069306931</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009900990099009901</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1138613861386139</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2277227722772277</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01704545454545454</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2215909090909091</v>
+        <v>0.2259887005649718</v>
       </c>
       <c r="I16">
-        <v>0.08522727272727272</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="J16">
-        <v>0.3352272727272727</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K16">
-        <v>0.1136363636363636</v>
+        <v>0.1129943502824859</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01136363636363636</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03409090909090909</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1818181818181818</v>
+        <v>0.1807909604519774</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02116402116402116</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1931216931216931</v>
+        <v>0.1893939393939394</v>
       </c>
       <c r="I17">
-        <v>0.126984126984127</v>
+        <v>0.1262626262626263</v>
       </c>
       <c r="J17">
-        <v>0.3915343915343915</v>
+        <v>0.3914141414141414</v>
       </c>
       <c r="K17">
-        <v>0.09788359788359788</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.005291005291005291</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06349206349206349</v>
+        <v>0.06565656565656566</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1005291005291005</v>
+        <v>0.101010101010101</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.009345794392523364</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1635514018691589</v>
+        <v>0.1696428571428572</v>
       </c>
       <c r="I18">
-        <v>0.05607476635514019</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="J18">
-        <v>0.4158878504672897</v>
+        <v>0.4196428571428572</v>
       </c>
       <c r="K18">
-        <v>0.1074766355140187</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03271028037383177</v>
+        <v>0.03125</v>
       </c>
       <c r="N18">
-        <v>0.004672897196261682</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="O18">
-        <v>0.0514018691588785</v>
+        <v>0.04910714285714286</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1588785046728972</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01649646504320503</v>
+        <v>0.01675552170601675</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2073841319717203</v>
+        <v>0.2086824067022087</v>
       </c>
       <c r="I19">
-        <v>0.08562450903377848</v>
+        <v>0.08453922315308454</v>
       </c>
       <c r="J19">
-        <v>0.3432835820895522</v>
+        <v>0.3465346534653465</v>
       </c>
       <c r="K19">
-        <v>0.1091908876669285</v>
+        <v>0.1081492764661082</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02592301649646504</v>
+        <v>0.02817974105102818</v>
       </c>
       <c r="N19">
-        <v>0.001571091908876669</v>
+        <v>0.001523229246001523</v>
       </c>
       <c r="O19">
-        <v>0.06048703849175176</v>
+        <v>0.05864432597105865</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1500392772977219</v>
+        <v>0.146991622239147</v>
       </c>
     </row>
   </sheetData>
